--- a/model.xlsx
+++ b/model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/injuredroman/Documents/OneDrive/Documents/Senior_Spring_2019/88223/project_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DE1DA05-4F1D-C340-9D4B-CA86CDDB68BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55398C4-6676-E748-9C13-64DD79C895CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{78F6D561-047B-C547-AEEC-659194B8774F}"/>
   </bookViews>
@@ -30,10 +30,81 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
+  <si>
+    <t>Student Willing To Pay</t>
+  </si>
+  <si>
+    <t>For Presentation</t>
+  </si>
+  <si>
+    <t>For Annotated Presentation</t>
+  </si>
+  <si>
+    <t>Amount Willing to Pay for Smartboard:</t>
+  </si>
+  <si>
+    <t>SUM(B2, B3)</t>
+  </si>
+  <si>
+    <t>Amount Willint to Pay for Projector:</t>
+  </si>
+  <si>
+    <t>SUM(B2)</t>
+  </si>
+  <si>
+    <t>Cost to buy Projector:</t>
+  </si>
+  <si>
+    <t>Cost to upkeep Projector, per semester:</t>
+  </si>
+  <si>
+    <t>Cost to buy SMARTBoard:</t>
+  </si>
+  <si>
+    <t>Cost to upkeep SMARTBoard, per semester:</t>
+  </si>
+  <si>
+    <t>Total Cost of SMARTBoard:</t>
+  </si>
+  <si>
+    <t>Total Cost of Projector:</t>
+  </si>
+  <si>
+    <t>SUM(B18, B19)</t>
+  </si>
+  <si>
+    <t>SUM(B14, B15))</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis on upkeep cost, students willing to pay</t>
+  </si>
+  <si>
+    <t>SMARTBOARD</t>
+  </si>
+  <si>
+    <t>ROW will be Sensitivity on Student's willing to pay --&gt;</t>
+  </si>
+  <si>
+    <t>^ column will be sensitivity to upkeep costs (since initial purchasing cost is well-known/verifiable)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +449,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276D30B6-0C61-2249-997D-907B76C66600}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model.xlsx
+++ b/model.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/injuredroman/Documents/OneDrive/Documents/Senior_Spring_2019/88223/project_repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royxu/Dropbox/COLLEGE/88-223/Project/88223_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55398C4-6676-E748-9C13-64DD79C895CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD5B6ED-E8B2-6645-975B-64D5FDF3BD10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{78F6D561-047B-C547-AEEC-659194B8774F}"/>
+    <workbookView xWindow="2300" yWindow="2520" windowWidth="28040" windowHeight="17440" xr2:uid="{78F6D561-047B-C547-AEEC-659194B8774F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
   <si>
     <t>Student Willing To Pay</t>
   </si>
@@ -42,42 +42,12 @@
     <t>For Annotated Presentation</t>
   </si>
   <si>
-    <t>Amount Willing to Pay for Smartboard:</t>
-  </si>
-  <si>
-    <t>SUM(B2, B3)</t>
-  </si>
-  <si>
-    <t>Amount Willint to Pay for Projector:</t>
-  </si>
-  <si>
-    <t>SUM(B2)</t>
-  </si>
-  <si>
     <t>Cost to buy Projector:</t>
   </si>
   <si>
-    <t>Cost to upkeep Projector, per semester:</t>
-  </si>
-  <si>
     <t>Cost to buy SMARTBoard:</t>
   </si>
   <si>
-    <t>Cost to upkeep SMARTBoard, per semester:</t>
-  </si>
-  <si>
-    <t>Total Cost of SMARTBoard:</t>
-  </si>
-  <si>
-    <t>Total Cost of Projector:</t>
-  </si>
-  <si>
-    <t>SUM(B18, B19)</t>
-  </si>
-  <si>
-    <t>SUM(B14, B15))</t>
-  </si>
-  <si>
     <t>Sensitivity Analysis on upkeep cost, students willing to pay</t>
   </si>
   <si>
@@ -88,13 +58,92 @@
   </si>
   <si>
     <t>^ column will be sensitivity to upkeep costs (since initial purchasing cost is well-known/verifiable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of installation: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of replacement lamps: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter cost: </t>
+  </si>
+  <si>
+    <t>Cost of installation (each projector)</t>
+  </si>
+  <si>
+    <t>Cost of replacing lamps (per lamp)</t>
+  </si>
+  <si>
+    <t>Lamp replacement rate (per year)</t>
+  </si>
+  <si>
+    <t>WTP for Smartboard per student</t>
+  </si>
+  <si>
+    <t>WTP for Projector per student</t>
+  </si>
+  <si>
+    <t>% student willing to pay for Smartboard</t>
+  </si>
+  <si>
+    <t>% student willing to pay for Projector</t>
+  </si>
+  <si>
+    <t>NPV for projector</t>
+  </si>
+  <si>
+    <t>Cost of retrofitting and additional hardware</t>
+  </si>
+  <si>
+    <t>Cost of additional software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of maintainance </t>
+  </si>
+  <si>
+    <t>Cost of professional development (tutorial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of replacement </t>
+  </si>
+  <si>
+    <t>Maintainance rate (per year)</t>
+  </si>
+  <si>
+    <t>Replacement rate (per year)</t>
+  </si>
+  <si>
+    <t>NPV for smartboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount rate: </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total projectors installed</t>
+  </si>
+  <si>
+    <t>Total students</t>
+  </si>
+  <si>
+    <t>Other technology fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total smartboards installed </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +154,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,15 +185,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,16 +514,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276D30B6-0C61-2249-997D-907B76C66600}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -471,303 +538,717 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="3">
+        <v>435</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>6000</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <f>B3</f>
+        <v>465</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUM(B2)</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.64</v>
+      </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.02</v>
+      </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2">
+        <v>415</v>
+      </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1499</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>249</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>20</v>
+      </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.8</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="B20" s="6">
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4">
+        <f>PRODUCT($B$6,($B$8-$B$12),$B$10)-(SUM($B$14*$B$20,$B$15)+NPV($B$11,SUM($B$16,$B$17*$B$20)*$B$19*(A36-$A$36)+$B$18))</f>
+        <v>54280.098039215685</v>
+      </c>
+      <c r="C36" s="3">
+        <f>PRODUCT($B$6,($B$7-$B$12))-(SUM($B$24*$B$33,$B$25)+NPV($B$11,$B$26+$B$27+$B$28,PRODUCT($B$29,$B$30,A36-$A$36),PRODUCT($B$31,$B$32,A36-$A$36)))</f>
+        <v>221435.50980392157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" ref="B37:B55" si="0">PRODUCT($B$6,($B$8-$B$12),$B$10)-(SUM($B$14*$B$20,$B$15)+NPV($B$11,SUM($B$16,$B$17*$B$20)*$B$19*(A37-$A$36)+$B$18))</f>
+        <v>53849.509803921566</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" ref="C37:C55" si="1">PRODUCT($B$6,($B$7-$B$12))-(SUM($B$24*$B$33,$B$25)+NPV($B$11,$B$26+$B$27+$B$28,PRODUCT($B$29,$B$30,A37-$A$36),PRODUCT($B$31,$B$32,A37-$A$36)))</f>
+        <v>220319.05007123959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="0"/>
+        <v>53418.921568627455</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="1"/>
+        <v>219202.59033855755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="0"/>
+        <v>52988.333333333328</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="1"/>
+        <v>218086.13060587557</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="0"/>
+        <v>52557.745098039217</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="1"/>
+        <v>216969.67087319357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="0"/>
+        <v>52127.156862745098</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="1"/>
+        <v>215853.21114051156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="0"/>
+        <v>51696.568627450979</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="1"/>
+        <v>214736.75140782958</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="0"/>
+        <v>51265.980392156867</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="1"/>
+        <v>213620.29167514757</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="0"/>
+        <v>50835.392156862741</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="1"/>
+        <v>212503.83194246556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="0"/>
+        <v>50404.803921568629</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="1"/>
+        <v>211387.37220978359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="0"/>
+        <v>49974.215686274511</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="1"/>
+        <v>210270.91247710155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="0"/>
+        <v>49543.627450980392</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="1"/>
+        <v>209154.45274441957</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="0"/>
+        <v>49113.039215686273</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="1"/>
+        <v>208037.99301173756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="0"/>
+        <v>48682.450980392154</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="1"/>
+        <v>206921.53327905555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" si="0"/>
+        <v>48251.862745098042</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="1"/>
+        <v>205805.07354637358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" si="0"/>
+        <v>47821.274509803916</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="1"/>
+        <v>204688.61381369157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52" s="4">
+        <f t="shared" si="0"/>
+        <v>47390.686274509804</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="1"/>
+        <v>203572.15408100956</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>18</v>
+      </c>
+      <c r="B53" s="4">
+        <f t="shared" si="0"/>
+        <v>46960.098039215685</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="1"/>
+        <v>202455.69434832758</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>19</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="0"/>
+        <v>46529.509803921566</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="1"/>
+        <v>201339.23461564555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20</v>
+      </c>
+      <c r="B55" s="4">
+        <f t="shared" si="0"/>
+        <v>46098.921568627455</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="1"/>
+        <v>200222.77488296357</v>
       </c>
     </row>
   </sheetData>
